--- a/pages/Milionaria/base.xlsx
+++ b/pages/Milionaria/base.xlsx
@@ -28592,6 +28592,327 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$255.472,29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$68.125,94</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.541,73</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.450,17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2149</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$101,89</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2872</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22146</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20768</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>161309</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$13.321.422,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$118.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$433.741,55</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12.048,38</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.807,26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1405</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$147,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1787</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13525</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15100</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>110176</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$11.294.574,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$120.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>02/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$58.239,05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$7.669,34</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.087,56</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1554</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$142,76</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2237</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17860</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14655</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>139904</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12.628.434,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$121.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28780,7 +29101,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-06-23T04:05:43+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-03T04:02:52+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>

--- a/pages/Milionaria/base.xlsx
+++ b/pages/Milionaria/base.xlsx
@@ -28913,6 +28913,113 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>05/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$328.690,20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12.173,71</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.932,33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2354</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$132,98</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2883</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25951</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21947</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>204407</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$17.966.334,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$123.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29101,7 +29208,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-03T04:02:52+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-06T04:02:48+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>

--- a/pages/Milionaria/base.xlsx
+++ b/pages/Milionaria/base.xlsx
@@ -29020,6 +29020,434 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>09/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$85.145,95</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.722,23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.105,79</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2603</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$93,45</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3632</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24477</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25240</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>175935</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$14.860.656,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$125.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$182.680,08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$8.399,09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.289,22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1959</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$133,21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2793</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23839</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22728</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>186729</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$15.515.250,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$128.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$94.888,64</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$14.057,58</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.069,54</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1532</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$176,96</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2451</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20454</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20133</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>171503</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$15.390.600,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$129.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$32.749,09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.385,63</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1810</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$143,15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3343</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20824</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27766</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>167505</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$15.201.042,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$132.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29208,7 +29636,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-06T04:02:48+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-23T04:01:15+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>
